--- a/output/StructureDefinition-ClaimResponse.xlsx
+++ b/output/StructureDefinition-ClaimResponse.xlsx
@@ -1950,44 +1950,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="53.671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="54.12109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="52.7109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="53.15625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="120.64453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="123.0703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="52.80078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="121.30859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="122.1171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="53.48828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="22.671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/output/StructureDefinition-ClaimResponse.xlsx
+++ b/output/StructureDefinition-ClaimResponse.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$144</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$145</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4927" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4961" uniqueCount="585">
   <si>
     <t>Path</t>
   </si>
@@ -327,11 +327,29 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>DomainResource.extension</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>secondaryinsurer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://swasth-digital-health-foundation.github.io/standards/output/StructureDefinition-HCXOrganizationExtension.html}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>ClaimResponse.modifierExtension</t>
@@ -1941,7 +1959,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL144"/>
+  <dimension ref="A1:AL145"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1951,7 +1969,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="54.12109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="16.515625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -2930,19 +2948,17 @@
         <v>42</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>40</v>
@@ -2954,7 +2970,7 @@
         <v>42</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>42</v>
@@ -2968,9 +2984,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="C10" t="s" s="2">
         <v>94</v>
       </c>
@@ -2985,26 +3003,24 @@
         <v>42</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="M10" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="N10" t="s" s="2">
-        <v>104</v>
-      </c>
+      <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>42</v>
       </c>
@@ -3052,7 +3068,7 @@
         <v>42</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>40</v>
@@ -3061,10 +3077,10 @@
         <v>41</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>42</v>
@@ -3082,36 +3098,38 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="N11" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M11" s="2"/>
-      <c r="N11" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>42</v>
@@ -3160,7 +3178,7 @@
         <v>42</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>40</v>
@@ -3172,21 +3190,21 @@
         <v>42</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>42</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3203,25 +3221,23 @@
         <v>42</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" s="2"/>
+      <c r="N12" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>42</v>
@@ -3246,13 +3262,13 @@
         <v>42</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>118</v>
+        <v>42</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>42</v>
@@ -3270,13 +3286,13 @@
         <v>42</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>42</v>
@@ -3285,10 +3301,10 @@
         <v>61</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>42</v>
@@ -3296,7 +3312,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3313,25 +3329,25 @@
         <v>42</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>42</v>
@@ -3356,13 +3372,13 @@
         <v>42</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>42</v>
@@ -3380,7 +3396,7 @@
         <v>42</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>49</v>
@@ -3395,10 +3411,10 @@
         <v>61</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>42</v>
@@ -3406,7 +3422,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3414,7 +3430,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>49</v>
@@ -3426,22 +3442,22 @@
         <v>42</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>42</v>
@@ -3490,10 +3506,10 @@
         <v>42</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>49</v>
@@ -3508,7 +3524,7 @@
         <v>42</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>42</v>
@@ -3516,7 +3532,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3524,7 +3540,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>49</v>
@@ -3536,20 +3552,22 @@
         <v>42</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>69</v>
+        <v>129</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="M15" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N15" t="s" s="2">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>42</v>
@@ -3574,14 +3592,14 @@
         <v>42</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="Y15" t="s" s="2">
-        <v>142</v>
-      </c>
       <c r="Z15" t="s" s="2">
         <v>42</v>
       </c>
@@ -3598,10 +3616,10 @@
         <v>42</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>49</v>
@@ -3616,7 +3634,7 @@
         <v>42</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>42</v>
@@ -3624,7 +3642,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3647,17 +3665,17 @@
         <v>50</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="K16" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>42</v>
@@ -3682,13 +3700,13 @@
         <v>42</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>42</v>
+        <v>146</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>42</v>
@@ -3706,7 +3724,7 @@
         <v>42</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>49</v>
@@ -3724,7 +3742,7 @@
         <v>42</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>42</v>
@@ -3732,7 +3750,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3755,17 +3773,17 @@
         <v>50</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>42</v>
@@ -3814,7 +3832,7 @@
         <v>42</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>49</v>
@@ -3829,10 +3847,10 @@
         <v>61</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>154</v>
+        <v>42</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>42</v>
@@ -3840,7 +3858,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3863,17 +3881,17 @@
         <v>50</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>42</v>
@@ -3922,7 +3940,7 @@
         <v>42</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>49</v>
@@ -3937,10 +3955,10 @@
         <v>61</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>42</v>
@@ -3948,7 +3966,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3968,21 +3986,21 @@
         <v>42</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" s="2"/>
+      <c r="N19" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="M19" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>42</v>
       </c>
@@ -4030,10 +4048,10 @@
         <v>42</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>49</v>
@@ -4045,10 +4063,10 @@
         <v>61</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>42</v>
+        <v>166</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>167</v>
+        <v>42</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>42</v>
@@ -4056,7 +4074,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4076,18 +4094,20 @@
         <v>42</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>42</v>
@@ -4136,7 +4156,7 @@
         <v>42</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>40</v>
@@ -4151,10 +4171,10 @@
         <v>61</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>42</v>
@@ -4162,7 +4182,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4185,7 +4205,7 @@
         <v>50</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>69</v>
+        <v>174</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>175</v>
@@ -4193,12 +4213,8 @@
       <c r="L21" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="M21" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>178</v>
-      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>42</v>
       </c>
@@ -4222,13 +4238,13 @@
         <v>42</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>118</v>
+        <v>42</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>179</v>
+        <v>42</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>180</v>
+        <v>42</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>42</v>
@@ -4246,10 +4262,10 @@
         <v>42</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>49</v>
@@ -4261,10 +4277,10 @@
         <v>61</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>42</v>
+        <v>177</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>42</v>
+        <v>178</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>42</v>
@@ -4272,7 +4288,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4280,7 +4296,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>49</v>
@@ -4292,20 +4308,22 @@
         <v>42</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>42</v>
@@ -4330,13 +4348,13 @@
         <v>42</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>42</v>
+        <v>184</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>42</v>
+        <v>185</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>42</v>
@@ -4354,10 +4372,10 @@
         <v>42</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>49</v>
@@ -4369,7 +4387,7 @@
         <v>61</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>185</v>
+        <v>42</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>42</v>
@@ -4411,11 +4429,9 @@
       <c r="L23" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="M23" s="2"/>
+      <c r="N23" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>42</v>
@@ -4479,7 +4495,7 @@
         <v>61</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>42</v>
+        <v>190</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>42</v>
@@ -4513,15 +4529,17 @@
         <v>42</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
         <v>195</v>
       </c>
@@ -4621,17 +4639,17 @@
         <v>42</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>124</v>
+        <v>197</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>42</v>
@@ -4656,13 +4674,13 @@
         <v>42</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>200</v>
+        <v>42</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>201</v>
+        <v>42</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>42</v>
@@ -4706,7 +4724,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4717,7 +4735,7 @@
         <v>40</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>42</v>
@@ -4729,17 +4747,17 @@
         <v>42</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="K26" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>42</v>
@@ -4764,13 +4782,13 @@
         <v>42</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>42</v>
+        <v>139</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>42</v>
+        <v>205</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>42</v>
+        <v>206</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>42</v>
@@ -4788,13 +4806,13 @@
         <v>42</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>42</v>
@@ -4825,7 +4843,7 @@
         <v>40</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>42</v>
@@ -4837,16 +4855,18 @@
         <v>42</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>51</v>
+        <v>208</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+      <c r="N27" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>42</v>
       </c>
@@ -4894,19 +4914,19 @@
         <v>42</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>42</v>
@@ -4915,7 +4935,7 @@
         <v>42</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>211</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" hidden="true">
@@ -4924,14 +4944,14 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>42</v>
@@ -4943,17 +4963,15 @@
         <v>42</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>96</v>
+        <v>213</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>42</v>
@@ -5002,19 +5020,19 @@
         <v>42</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>42</v>
@@ -5023,16 +5041,16 @@
         <v>42</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>216</v>
+        <v>94</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5045,16 +5063,16 @@
         <v>42</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>217</v>
+        <v>96</v>
       </c>
       <c r="L29" t="s" s="2">
         <v>218</v>
@@ -5062,9 +5080,7 @@
       <c r="M29" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="N29" t="s" s="2">
-        <v>104</v>
-      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>42</v>
       </c>
@@ -5124,7 +5140,7 @@
         <v>42</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>42</v>
@@ -5133,7 +5149,7 @@
         <v>42</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>92</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" hidden="true">
@@ -5142,26 +5158,26 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>42</v>
+        <v>221</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>221</v>
+        <v>95</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>222</v>
@@ -5169,9 +5185,11 @@
       <c r="L30" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="M30" s="2"/>
+      <c r="M30" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="N30" t="s" s="2">
-        <v>224</v>
+        <v>109</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>42</v>
@@ -5220,19 +5238,19 @@
         <v>42</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>42</v>
@@ -5241,7 +5259,7 @@
         <v>42</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>42</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" hidden="true">
@@ -5254,10 +5272,10 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>42</v>
@@ -5269,17 +5287,17 @@
         <v>42</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>42</v>
@@ -5331,10 +5349,10 @@
         <v>225</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>42</v>
@@ -5354,7 +5372,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5362,7 +5380,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>41</v>
@@ -5377,17 +5395,17 @@
         <v>42</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>42</v>
@@ -5436,10 +5454,10 @@
         <v>42</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>41</v>
@@ -5462,7 +5480,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5470,10 +5488,10 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>42</v>
@@ -5485,16 +5503,18 @@
         <v>42</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>51</v>
+        <v>208</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+      <c r="N33" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>42</v>
       </c>
@@ -5542,19 +5562,19 @@
         <v>42</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>42</v>
@@ -5563,23 +5583,23 @@
         <v>42</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>211</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>42</v>
@@ -5591,17 +5611,15 @@
         <v>42</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>96</v>
+        <v>213</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>42</v>
@@ -5650,19 +5668,19 @@
         <v>42</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>42</v>
@@ -5671,16 +5689,16 @@
         <v>42</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>216</v>
+        <v>94</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5693,16 +5711,16 @@
         <v>42</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>217</v>
+        <v>96</v>
       </c>
       <c r="L35" t="s" s="2">
         <v>218</v>
@@ -5710,9 +5728,7 @@
       <c r="M35" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="N35" t="s" s="2">
-        <v>104</v>
-      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>42</v>
       </c>
@@ -5772,7 +5788,7 @@
         <v>42</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>42</v>
@@ -5781,47 +5797,47 @@
         <v>42</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>92</v>
+        <v>216</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>42</v>
+        <v>221</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>239</v>
+        <v>98</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>240</v>
+        <v>109</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>42</v>
@@ -5846,13 +5862,13 @@
         <v>42</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>241</v>
+        <v>42</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>242</v>
+        <v>42</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>42</v>
@@ -5870,19 +5886,19 @@
         <v>42</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>42</v>
@@ -5891,12 +5907,12 @@
         <v>42</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>42</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5904,7 +5920,7 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>49</v>
@@ -5919,19 +5935,19 @@
         <v>42</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>42</v>
@@ -5956,13 +5972,13 @@
         <v>42</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>42</v>
@@ -5980,10 +5996,10 @@
         <v>42</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>49</v>
@@ -6006,7 +6022,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6029,19 +6045,19 @@
         <v>42</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>42</v>
@@ -6066,13 +6082,13 @@
         <v>42</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>42</v>
+        <v>139</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>42</v>
+        <v>253</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>42</v>
+        <v>254</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>42</v>
@@ -6090,7 +6106,7 @@
         <v>42</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
@@ -6116,7 +6132,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6139,19 +6155,19 @@
         <v>42</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>42</v>
@@ -6200,7 +6216,7 @@
         <v>42</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>40</v>
@@ -6226,7 +6242,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6237,7 +6253,7 @@
         <v>40</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>42</v>
@@ -6249,7 +6265,7 @@
         <v>42</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>203</v>
+        <v>262</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>263</v>
@@ -6257,9 +6273,11 @@
       <c r="L40" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="M40" s="2"/>
+      <c r="M40" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="N40" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>42</v>
@@ -6308,13 +6326,13 @@
         <v>42</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>42</v>
@@ -6334,7 +6352,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6345,7 +6363,7 @@
         <v>40</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>42</v>
@@ -6357,16 +6375,18 @@
         <v>42</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>51</v>
+        <v>208</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>208</v>
+        <v>268</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+      <c r="N41" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>42</v>
       </c>
@@ -6414,19 +6434,19 @@
         <v>42</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>210</v>
+        <v>267</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>42</v>
@@ -6435,23 +6455,23 @@
         <v>42</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>211</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>42</v>
@@ -6463,17 +6483,15 @@
         <v>42</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>96</v>
+        <v>213</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>42</v>
@@ -6522,19 +6540,19 @@
         <v>42</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>42</v>
@@ -6543,16 +6561,16 @@
         <v>42</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>216</v>
+        <v>94</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6565,16 +6583,16 @@
         <v>42</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>217</v>
+        <v>96</v>
       </c>
       <c r="L43" t="s" s="2">
         <v>218</v>
@@ -6582,9 +6600,7 @@
       <c r="M43" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="N43" t="s" s="2">
-        <v>104</v>
-      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>42</v>
       </c>
@@ -6644,7 +6660,7 @@
         <v>42</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>42</v>
@@ -6653,45 +6669,47 @@
         <v>42</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>92</v>
+        <v>216</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>42</v>
+        <v>221</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>221</v>
+        <v>95</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>270</v>
+        <v>222</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="N44" t="s" s="2">
-        <v>272</v>
+        <v>109</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>42</v>
@@ -6740,19 +6758,19 @@
         <v>42</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>269</v>
+        <v>224</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>42</v>
@@ -6761,12 +6779,12 @@
         <v>42</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>42</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6774,10 +6792,10 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>42</v>
@@ -6789,17 +6807,17 @@
         <v>42</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>226</v>
+        <v>275</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>227</v>
+        <v>276</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
-        <v>228</v>
+        <v>277</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>42</v>
@@ -6848,13 +6866,13 @@
         <v>42</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>42</v>
@@ -6874,7 +6892,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6882,7 +6900,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>41</v>
@@ -6897,16 +6915,18 @@
         <v>42</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>42</v>
+        <v>226</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>275</v>
+        <v>231</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>276</v>
+        <v>232</v>
       </c>
       <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+      <c r="N46" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>42</v>
       </c>
@@ -6954,10 +6974,10 @@
         <v>42</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>41</v>
@@ -6980,7 +7000,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6988,7 +7008,7 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>41</v>
@@ -7003,18 +7023,16 @@
         <v>42</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>203</v>
+        <v>42</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M47" s="2"/>
-      <c r="N47" t="s" s="2">
-        <v>280</v>
-      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>42</v>
       </c>
@@ -7062,10 +7080,10 @@
         <v>42</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>41</v>
@@ -7088,7 +7106,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7099,7 +7117,7 @@
         <v>40</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>42</v>
@@ -7111,16 +7129,18 @@
         <v>42</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>51</v>
+        <v>208</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>208</v>
+        <v>283</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>209</v>
+        <v>284</v>
       </c>
       <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+      <c r="N48" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>42</v>
       </c>
@@ -7168,19 +7188,19 @@
         <v>42</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>210</v>
+        <v>282</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>42</v>
@@ -7189,23 +7209,23 @@
         <v>42</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>211</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>42</v>
@@ -7217,17 +7237,15 @@
         <v>42</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>96</v>
+        <v>213</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>42</v>
@@ -7276,19 +7294,19 @@
         <v>42</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>42</v>
@@ -7297,16 +7315,16 @@
         <v>42</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>216</v>
+        <v>94</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7319,16 +7337,16 @@
         <v>42</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>217</v>
+        <v>96</v>
       </c>
       <c r="L50" t="s" s="2">
         <v>218</v>
@@ -7336,9 +7354,7 @@
       <c r="M50" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="N50" t="s" s="2">
-        <v>104</v>
-      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>42</v>
       </c>
@@ -7398,7 +7414,7 @@
         <v>42</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>42</v>
@@ -7407,45 +7423,47 @@
         <v>42</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>92</v>
+        <v>216</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>42</v>
+        <v>221</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>221</v>
+        <v>95</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>285</v>
+        <v>222</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="N51" t="s" s="2">
-        <v>287</v>
+        <v>109</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>42</v>
@@ -7494,19 +7512,19 @@
         <v>42</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>284</v>
+        <v>224</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>42</v>
@@ -7515,12 +7533,12 @@
         <v>42</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>42</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7528,10 +7546,10 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>42</v>
@@ -7543,17 +7561,17 @@
         <v>42</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>226</v>
+        <v>290</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>227</v>
+        <v>291</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>228</v>
+        <v>292</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>42</v>
@@ -7602,13 +7620,13 @@
         <v>42</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>42</v>
@@ -7628,7 +7646,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7651,16 +7669,18 @@
         <v>42</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>42</v>
+        <v>226</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>290</v>
+        <v>231</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>276</v>
+        <v>232</v>
       </c>
       <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+      <c r="N53" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>42</v>
       </c>
@@ -7708,7 +7728,7 @@
         <v>42</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>40</v>
@@ -7734,7 +7754,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7757,18 +7777,16 @@
         <v>42</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>203</v>
+        <v>42</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="M54" s="2"/>
-      <c r="N54" t="s" s="2">
-        <v>294</v>
-      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>42</v>
       </c>
@@ -7816,7 +7834,7 @@
         <v>42</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>40</v>
@@ -7842,7 +7860,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7853,7 +7871,7 @@
         <v>40</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>42</v>
@@ -7865,16 +7883,18 @@
         <v>42</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>51</v>
+        <v>208</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>208</v>
+        <v>297</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>209</v>
+        <v>298</v>
       </c>
       <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+      <c r="N55" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>42</v>
       </c>
@@ -7922,19 +7942,19 @@
         <v>42</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>210</v>
+        <v>296</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>42</v>
@@ -7943,23 +7963,23 @@
         <v>42</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>211</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>42</v>
@@ -7971,17 +7991,15 @@
         <v>42</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>96</v>
+        <v>213</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>42</v>
@@ -8030,19 +8048,19 @@
         <v>42</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>42</v>
@@ -8051,16 +8069,16 @@
         <v>42</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>216</v>
+        <v>94</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8073,16 +8091,16 @@
         <v>42</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J57" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>217</v>
+        <v>96</v>
       </c>
       <c r="L57" t="s" s="2">
         <v>218</v>
@@ -8090,9 +8108,7 @@
       <c r="M57" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="N57" t="s" s="2">
-        <v>104</v>
-      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>42</v>
       </c>
@@ -8152,7 +8168,7 @@
         <v>42</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>42</v>
@@ -8161,16 +8177,16 @@
         <v>42</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>92</v>
+        <v>216</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>42</v>
+        <v>221</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8183,23 +8199,25 @@
         <v>42</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>221</v>
+        <v>95</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>299</v>
+        <v>222</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="N58" t="s" s="2">
-        <v>301</v>
+        <v>109</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>42</v>
@@ -8248,7 +8266,7 @@
         <v>42</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>298</v>
+        <v>224</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>40</v>
@@ -8260,7 +8278,7 @@
         <v>42</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>42</v>
@@ -8269,12 +8287,12 @@
         <v>42</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>42</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8297,17 +8315,17 @@
         <v>42</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>42</v>
@@ -8356,7 +8374,7 @@
         <v>42</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>40</v>
@@ -8382,7 +8400,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8405,17 +8423,17 @@
         <v>42</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>42</v>
@@ -8464,7 +8482,7 @@
         <v>42</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>40</v>
@@ -8490,7 +8508,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8513,17 +8531,17 @@
         <v>42</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>163</v>
+        <v>226</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>42</v>
@@ -8572,7 +8590,7 @@
         <v>42</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>40</v>
@@ -8590,7 +8608,7 @@
         <v>42</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>167</v>
+        <v>42</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>42</v>
@@ -8598,7 +8616,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8606,10 +8624,10 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>42</v>
@@ -8621,17 +8639,15 @@
         <v>42</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>124</v>
+        <v>168</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="M62" t="s" s="2">
         <v>317</v>
       </c>
+      <c r="M62" s="2"/>
       <c r="N62" t="s" s="2">
         <v>318</v>
       </c>
@@ -8658,13 +8674,13 @@
         <v>42</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>319</v>
+        <v>42</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>320</v>
+        <v>42</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>42</v>
@@ -8682,13 +8698,13 @@
         <v>42</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>42</v>
@@ -8700,7 +8716,7 @@
         <v>42</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>42</v>
+        <v>172</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>42</v>
@@ -8708,7 +8724,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8716,10 +8732,10 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>42</v>
@@ -8731,19 +8747,19 @@
         <v>42</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>42</v>
@@ -8768,13 +8784,13 @@
         <v>42</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>42</v>
@@ -8792,13 +8808,13 @@
         <v>42</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>42</v>
@@ -8813,12 +8829,12 @@
         <v>42</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>328</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8841,19 +8857,19 @@
         <v>42</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="N64" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>42</v>
@@ -8878,13 +8894,13 @@
         <v>42</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>42</v>
@@ -8902,7 +8918,7 @@
         <v>42</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>40</v>
@@ -8923,12 +8939,12 @@
         <v>42</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8939,7 +8955,7 @@
         <v>40</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>42</v>
@@ -8951,17 +8967,19 @@
         <v>42</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="N65" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>42</v>
@@ -8986,13 +9004,13 @@
         <v>42</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>42</v>
+        <v>139</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>42</v>
+        <v>339</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>42</v>
+        <v>340</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>42</v>
@@ -9010,13 +9028,13 @@
         <v>42</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>42</v>
@@ -9028,15 +9046,15 @@
         <v>42</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>342</v>
+        <v>42</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9059,17 +9077,17 @@
         <v>42</v>
       </c>
       <c r="J66" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>42</v>
@@ -9094,13 +9112,13 @@
         <v>42</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>349</v>
+        <v>42</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>350</v>
+        <v>42</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>42</v>
@@ -9118,7 +9136,7 @@
         <v>42</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>40</v>
@@ -9136,15 +9154,15 @@
         <v>42</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9167,17 +9185,17 @@
         <v>42</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>42</v>
@@ -9202,13 +9220,13 @@
         <v>42</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>42</v>
+        <v>139</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>42</v>
+        <v>354</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>42</v>
+        <v>355</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>42</v>
@@ -9226,7 +9244,7 @@
         <v>42</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>40</v>
@@ -9244,15 +9262,15 @@
         <v>42</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>42</v>
+        <v>356</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9275,7 +9293,7 @@
         <v>42</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>251</v>
+        <v>359</v>
       </c>
       <c r="K68" t="s" s="2">
         <v>360</v>
@@ -9334,7 +9352,7 @@
         <v>42</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>40</v>
@@ -9355,12 +9373,12 @@
         <v>42</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>42</v>
+        <v>363</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9383,17 +9401,15 @@
         <v>42</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M69" t="s" s="2">
         <v>366</v>
       </c>
+      <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
         <v>367</v>
       </c>
@@ -9444,7 +9460,7 @@
         <v>42</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>40</v>
@@ -9493,7 +9509,7 @@
         <v>42</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="K70" t="s" s="2">
         <v>369</v>
@@ -9575,12 +9591,12 @@
         <v>42</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>373</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9603,19 +9619,19 @@
         <v>42</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>124</v>
+        <v>256</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>42</v>
@@ -9640,13 +9656,13 @@
         <v>42</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>379</v>
+        <v>42</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>380</v>
+        <v>42</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>42</v>
@@ -9664,7 +9680,7 @@
         <v>42</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>40</v>
@@ -9685,12 +9701,12 @@
         <v>42</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>42</v>
+        <v>378</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9701,7 +9717,7 @@
         <v>40</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>42</v>
@@ -9713,17 +9729,19 @@
         <v>42</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>42</v>
@@ -9748,7 +9766,7 @@
         <v>42</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="X72" t="s" s="2">
         <v>384</v>
@@ -9772,13 +9790,13 @@
         <v>42</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>42</v>
@@ -9821,17 +9839,17 @@
         <v>42</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>221</v>
+        <v>129</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>226</v>
+        <v>387</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>227</v>
+        <v>388</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" t="s" s="2">
-        <v>228</v>
+        <v>383</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>42</v>
@@ -9856,13 +9874,13 @@
         <v>42</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>42</v>
+        <v>139</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>42</v>
+        <v>389</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>42</v>
+        <v>390</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>42</v>
@@ -9906,7 +9924,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9914,7 +9932,7 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>41</v>
@@ -9929,16 +9947,18 @@
         <v>42</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>42</v>
+        <v>226</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>388</v>
+        <v>231</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>276</v>
+        <v>232</v>
       </c>
       <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
+      <c r="N74" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="O74" t="s" s="2">
         <v>42</v>
       </c>
@@ -9986,10 +10006,10 @@
         <v>42</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>41</v>
@@ -10012,7 +10032,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10020,7 +10040,7 @@
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>41</v>
@@ -10035,13 +10055,13 @@
         <v>42</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>203</v>
+        <v>42</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>391</v>
+        <v>281</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10092,10 +10112,10 @@
         <v>42</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>41</v>
@@ -10118,7 +10138,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10129,7 +10149,7 @@
         <v>40</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>42</v>
@@ -10141,13 +10161,13 @@
         <v>42</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>51</v>
+        <v>208</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>208</v>
+        <v>395</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>209</v>
+        <v>396</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10198,19 +10218,19 @@
         <v>42</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>210</v>
+        <v>394</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>42</v>
@@ -10219,23 +10239,23 @@
         <v>42</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>211</v>
+        <v>42</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>42</v>
@@ -10247,17 +10267,15 @@
         <v>42</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>96</v>
+        <v>213</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>42</v>
@@ -10306,19 +10324,19 @@
         <v>42</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>42</v>
@@ -10327,16 +10345,16 @@
         <v>42</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>216</v>
+        <v>94</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10349,16 +10367,16 @@
         <v>42</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J78" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>217</v>
+        <v>96</v>
       </c>
       <c r="L78" t="s" s="2">
         <v>218</v>
@@ -10366,9 +10384,7 @@
       <c r="M78" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="N78" t="s" s="2">
-        <v>104</v>
-      </c>
+      <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>42</v>
       </c>
@@ -10428,7 +10444,7 @@
         <v>42</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>42</v>
@@ -10437,47 +10453,47 @@
         <v>42</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>92</v>
+        <v>216</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>42</v>
+        <v>221</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>315</v>
+        <v>222</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>316</v>
+        <v>223</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>317</v>
+        <v>98</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>318</v>
+        <v>109</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>42</v>
@@ -10502,13 +10518,13 @@
         <v>42</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>319</v>
+        <v>42</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>320</v>
+        <v>42</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>42</v>
@@ -10526,19 +10542,19 @@
         <v>42</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>395</v>
+        <v>224</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>42</v>
@@ -10547,12 +10563,12 @@
         <v>42</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>42</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10560,10 +10576,10 @@
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>42</v>
@@ -10575,19 +10591,19 @@
         <v>42</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>42</v>
@@ -10612,13 +10628,13 @@
         <v>42</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>42</v>
@@ -10636,13 +10652,13 @@
         <v>42</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>42</v>
@@ -10657,12 +10673,12 @@
         <v>42</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>328</v>
+        <v>42</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10673,7 +10689,7 @@
         <v>40</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>42</v>
@@ -10685,17 +10701,19 @@
         <v>42</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>354</v>
+        <v>129</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>355</v>
+        <v>327</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M81" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="N81" t="s" s="2">
-        <v>357</v>
+        <v>330</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>42</v>
@@ -10720,13 +10738,13 @@
         <v>42</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>42</v>
+        <v>139</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>42</v>
+        <v>331</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>42</v>
+        <v>332</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>42</v>
@@ -10744,13 +10762,13 @@
         <v>42</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>42</v>
@@ -10765,12 +10783,12 @@
         <v>42</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>358</v>
+        <v>333</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10793,7 +10811,7 @@
         <v>42</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>251</v>
+        <v>359</v>
       </c>
       <c r="K82" t="s" s="2">
         <v>360</v>
@@ -10852,7 +10870,7 @@
         <v>42</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>40</v>
@@ -10873,12 +10891,12 @@
         <v>42</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>42</v>
+        <v>363</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10901,17 +10919,15 @@
         <v>42</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M83" t="s" s="2">
         <v>366</v>
       </c>
+      <c r="M83" s="2"/>
       <c r="N83" t="s" s="2">
         <v>367</v>
       </c>
@@ -10962,7 +10978,7 @@
         <v>42</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>40</v>
@@ -10988,7 +11004,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11011,7 +11027,7 @@
         <v>42</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="K84" t="s" s="2">
         <v>369</v>
@@ -11072,7 +11088,7 @@
         <v>42</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>40</v>
@@ -11093,12 +11109,12 @@
         <v>42</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>373</v>
+        <v>42</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11109,7 +11125,7 @@
         <v>40</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>42</v>
@@ -11121,17 +11137,19 @@
         <v>42</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>226</v>
+        <v>374</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M85" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="N85" t="s" s="2">
-        <v>228</v>
+        <v>377</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>42</v>
@@ -11180,13 +11198,13 @@
         <v>42</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>42</v>
@@ -11201,12 +11219,12 @@
         <v>42</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>42</v>
+        <v>378</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11214,7 +11232,7 @@
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F86" t="s" s="2">
         <v>41</v>
@@ -11229,16 +11247,18 @@
         <v>42</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>42</v>
+        <v>226</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>403</v>
+        <v>231</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>276</v>
+        <v>232</v>
       </c>
       <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
+      <c r="N86" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="O86" t="s" s="2">
         <v>42</v>
       </c>
@@ -11286,10 +11306,10 @@
         <v>42</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>41</v>
@@ -11312,7 +11332,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11320,7 +11340,7 @@
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F87" t="s" s="2">
         <v>41</v>
@@ -11335,13 +11355,13 @@
         <v>42</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>203</v>
+        <v>42</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>292</v>
+        <v>408</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>405</v>
+        <v>281</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -11392,10 +11412,10 @@
         <v>42</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>41</v>
@@ -11418,7 +11438,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11429,7 +11449,7 @@
         <v>40</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>42</v>
@@ -11441,13 +11461,13 @@
         <v>42</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>51</v>
+        <v>208</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>208</v>
+        <v>297</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>209</v>
+        <v>410</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -11498,19 +11518,19 @@
         <v>42</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>210</v>
+        <v>409</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>42</v>
@@ -11519,23 +11539,23 @@
         <v>42</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>211</v>
+        <v>42</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>42</v>
@@ -11547,17 +11567,15 @@
         <v>42</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>96</v>
+        <v>213</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="M89" s="2"/>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>42</v>
@@ -11606,19 +11624,19 @@
         <v>42</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>42</v>
@@ -11627,16 +11645,16 @@
         <v>42</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>216</v>
+        <v>94</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -11649,16 +11667,16 @@
         <v>42</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J90" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>217</v>
+        <v>96</v>
       </c>
       <c r="L90" t="s" s="2">
         <v>218</v>
@@ -11666,9 +11684,7 @@
       <c r="M90" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="N90" t="s" s="2">
-        <v>104</v>
-      </c>
+      <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>42</v>
       </c>
@@ -11728,7 +11744,7 @@
         <v>42</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>42</v>
@@ -11737,47 +11753,47 @@
         <v>42</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>92</v>
+        <v>216</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>42</v>
+        <v>221</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>315</v>
+        <v>222</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>316</v>
+        <v>223</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>317</v>
+        <v>98</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>318</v>
+        <v>109</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>42</v>
@@ -11802,13 +11818,13 @@
         <v>42</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>319</v>
+        <v>42</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>320</v>
+        <v>42</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>42</v>
@@ -11826,19 +11842,19 @@
         <v>42</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>409</v>
+        <v>224</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>42</v>
@@ -11847,12 +11863,12 @@
         <v>42</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>42</v>
+        <v>92</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11860,10 +11876,10 @@
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>42</v>
@@ -11875,19 +11891,19 @@
         <v>42</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="N92" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>42</v>
@@ -11912,13 +11928,13 @@
         <v>42</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>42</v>
@@ -11936,13 +11952,13 @@
         <v>42</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>42</v>
@@ -11957,12 +11973,12 @@
         <v>42</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>328</v>
+        <v>42</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11973,7 +11989,7 @@
         <v>40</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>42</v>
@@ -11985,17 +12001,19 @@
         <v>42</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>354</v>
+        <v>129</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>355</v>
+        <v>327</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M93" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="N93" t="s" s="2">
-        <v>357</v>
+        <v>330</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>42</v>
@@ -12020,13 +12038,13 @@
         <v>42</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>42</v>
+        <v>139</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>42</v>
+        <v>331</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>42</v>
+        <v>332</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>42</v>
@@ -12044,13 +12062,13 @@
         <v>42</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>42</v>
@@ -12065,12 +12083,12 @@
         <v>42</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>358</v>
+        <v>333</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12093,7 +12111,7 @@
         <v>42</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>251</v>
+        <v>359</v>
       </c>
       <c r="K94" t="s" s="2">
         <v>360</v>
@@ -12152,7 +12170,7 @@
         <v>42</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>40</v>
@@ -12173,12 +12191,12 @@
         <v>42</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>42</v>
+        <v>363</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12201,17 +12219,15 @@
         <v>42</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M95" t="s" s="2">
         <v>366</v>
       </c>
+      <c r="M95" s="2"/>
       <c r="N95" t="s" s="2">
         <v>367</v>
       </c>
@@ -12262,7 +12278,7 @@
         <v>42</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>40</v>
@@ -12288,7 +12304,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12311,7 +12327,7 @@
         <v>42</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="K96" t="s" s="2">
         <v>369</v>
@@ -12372,7 +12388,7 @@
         <v>42</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>40</v>
@@ -12393,12 +12409,12 @@
         <v>42</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>373</v>
+        <v>42</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12409,7 +12425,7 @@
         <v>40</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>42</v>
@@ -12421,17 +12437,19 @@
         <v>42</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>226</v>
+        <v>374</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M97" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="N97" t="s" s="2">
-        <v>228</v>
+        <v>377</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>42</v>
@@ -12480,13 +12498,13 @@
         <v>42</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>42</v>
@@ -12501,12 +12519,12 @@
         <v>42</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>42</v>
+        <v>378</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12514,7 +12532,7 @@
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F98" t="s" s="2">
         <v>41</v>
@@ -12529,16 +12547,18 @@
         <v>42</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>42</v>
+        <v>226</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>403</v>
+        <v>231</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>276</v>
+        <v>232</v>
       </c>
       <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
+      <c r="N98" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="O98" t="s" s="2">
         <v>42</v>
       </c>
@@ -12586,10 +12606,10 @@
         <v>42</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>41</v>
@@ -12612,7 +12632,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12620,7 +12640,7 @@
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F99" t="s" s="2">
         <v>41</v>
@@ -12638,15 +12658,13 @@
         <v>42</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>419</v>
+        <v>281</v>
       </c>
       <c r="M99" s="2"/>
-      <c r="N99" t="s" s="2">
-        <v>420</v>
-      </c>
+      <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
         <v>42</v>
       </c>
@@ -12694,10 +12712,10 @@
         <v>42</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>41</v>
@@ -12720,7 +12738,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12728,7 +12746,7 @@
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F100" t="s" s="2">
         <v>41</v>
@@ -12740,20 +12758,18 @@
         <v>42</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>203</v>
+        <v>42</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="M100" t="s" s="2">
         <v>424</v>
       </c>
+      <c r="M100" s="2"/>
       <c r="N100" t="s" s="2">
         <v>425</v>
       </c>
@@ -12804,7 +12820,7 @@
         <v>42</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>40</v>
@@ -12838,10 +12854,10 @@
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F101" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G101" t="s" s="2">
         <v>42</v>
@@ -12850,19 +12866,23 @@
         <v>42</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>51</v>
+        <v>208</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>208</v>
+        <v>427</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M101" s="2"/>
-      <c r="N101" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="O101" t="s" s="2">
         <v>42</v>
       </c>
@@ -12910,19 +12930,19 @@
         <v>42</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>210</v>
+        <v>426</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>42</v>
@@ -12931,23 +12951,23 @@
         <v>42</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>211</v>
+        <v>42</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>42</v>
@@ -12959,17 +12979,15 @@
         <v>42</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>96</v>
+        <v>213</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="M102" s="2"/>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
         <v>42</v>
@@ -13018,19 +13036,19 @@
         <v>42</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>42</v>
@@ -13039,16 +13057,16 @@
         <v>42</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
-        <v>216</v>
+        <v>94</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -13061,16 +13079,16 @@
         <v>42</v>
       </c>
       <c r="H103" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J103" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>217</v>
+        <v>96</v>
       </c>
       <c r="L103" t="s" s="2">
         <v>218</v>
@@ -13078,9 +13096,7 @@
       <c r="M103" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="N103" t="s" s="2">
-        <v>104</v>
-      </c>
+      <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
         <v>42</v>
       </c>
@@ -13140,7 +13156,7 @@
         <v>42</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>42</v>
@@ -13149,47 +13165,47 @@
         <v>42</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>92</v>
+        <v>216</v>
       </c>
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>42</v>
+        <v>221</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H104" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I104" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>430</v>
+        <v>223</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>239</v>
+        <v>98</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>431</v>
+        <v>109</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>42</v>
@@ -13214,13 +13230,13 @@
         <v>42</v>
       </c>
       <c r="W104" t="s" s="2">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>241</v>
+        <v>42</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>242</v>
+        <v>42</v>
       </c>
       <c r="Z104" t="s" s="2">
         <v>42</v>
@@ -13238,19 +13254,19 @@
         <v>42</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>429</v>
+        <v>224</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>42</v>
@@ -13259,12 +13275,12 @@
         <v>42</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>42</v>
+        <v>92</v>
       </c>
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -13287,17 +13303,19 @@
         <v>50</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>251</v>
+        <v>129</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>433</v>
+        <v>242</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="M105" s="2"/>
+        <v>435</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="N105" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>42</v>
@@ -13322,13 +13340,13 @@
         <v>42</v>
       </c>
       <c r="W105" t="s" s="2">
-        <v>42</v>
+        <v>139</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>42</v>
+        <v>246</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>42</v>
+        <v>247</v>
       </c>
       <c r="Z105" t="s" s="2">
         <v>42</v>
@@ -13346,7 +13364,7 @@
         <v>42</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>49</v>
@@ -13372,7 +13390,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13380,7 +13398,7 @@
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F106" t="s" s="2">
         <v>49</v>
@@ -13392,20 +13410,20 @@
         <v>42</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>203</v>
+        <v>256</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>42</v>
@@ -13454,10 +13472,10 @@
         <v>42</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>49</v>
@@ -13480,7 +13498,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13503,16 +13521,18 @@
         <v>42</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>51</v>
+        <v>208</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>208</v>
+        <v>442</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>209</v>
+        <v>443</v>
       </c>
       <c r="M107" s="2"/>
-      <c r="N107" s="2"/>
+      <c r="N107" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="O107" t="s" s="2">
         <v>42</v>
       </c>
@@ -13560,7 +13580,7 @@
         <v>42</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>210</v>
+        <v>441</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>40</v>
@@ -13572,7 +13592,7 @@
         <v>42</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>42</v>
@@ -13581,23 +13601,23 @@
         <v>42</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>211</v>
+        <v>42</v>
       </c>
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>42</v>
@@ -13609,17 +13629,15 @@
         <v>42</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>96</v>
+        <v>213</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="M108" s="2"/>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
         <v>42</v>
@@ -13668,19 +13686,19 @@
         <v>42</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>42</v>
@@ -13689,16 +13707,16 @@
         <v>42</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
-        <v>216</v>
+        <v>94</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
@@ -13711,16 +13729,16 @@
         <v>42</v>
       </c>
       <c r="H109" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J109" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>217</v>
+        <v>96</v>
       </c>
       <c r="L109" t="s" s="2">
         <v>218</v>
@@ -13728,9 +13746,7 @@
       <c r="M109" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="N109" t="s" s="2">
-        <v>104</v>
-      </c>
+      <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
         <v>42</v>
       </c>
@@ -13790,7 +13806,7 @@
         <v>42</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>42</v>
@@ -13799,45 +13815,47 @@
         <v>42</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>92</v>
+        <v>216</v>
       </c>
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
-        <v>42</v>
+        <v>221</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F110" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H110" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I110" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>444</v>
+        <v>222</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="M110" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="N110" t="s" s="2">
-        <v>446</v>
+        <v>109</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>42</v>
@@ -13862,13 +13880,13 @@
         <v>42</v>
       </c>
       <c r="W110" t="s" s="2">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>447</v>
+        <v>42</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>448</v>
+        <v>42</v>
       </c>
       <c r="Z110" t="s" s="2">
         <v>42</v>
@@ -13886,19 +13904,19 @@
         <v>42</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>443</v>
+        <v>224</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>42</v>
@@ -13907,12 +13925,12 @@
         <v>42</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>42</v>
+        <v>92</v>
       </c>
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13920,7 +13938,7 @@
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F111" t="s" s="2">
         <v>49</v>
@@ -13935,19 +13953,17 @@
         <v>42</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>251</v>
+        <v>129</v>
       </c>
       <c r="K111" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="L111" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="L111" t="s" s="2">
+      <c r="M111" s="2"/>
+      <c r="N111" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>42</v>
@@ -13972,13 +13988,13 @@
         <v>42</v>
       </c>
       <c r="W111" t="s" s="2">
-        <v>42</v>
+        <v>139</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>42</v>
+        <v>452</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>42</v>
+        <v>453</v>
       </c>
       <c r="Z111" t="s" s="2">
         <v>42</v>
@@ -13996,10 +14012,10 @@
         <v>42</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>49</v>
@@ -14045,7 +14061,7 @@
         <v>42</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>124</v>
+        <v>256</v>
       </c>
       <c r="K112" t="s" s="2">
         <v>455</v>
@@ -14053,9 +14069,11 @@
       <c r="L112" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="M112" s="2"/>
+      <c r="M112" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="N112" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>42</v>
@@ -14080,13 +14098,13 @@
         <v>42</v>
       </c>
       <c r="W112" t="s" s="2">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>458</v>
+        <v>42</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>459</v>
+        <v>42</v>
       </c>
       <c r="Z112" t="s" s="2">
         <v>42</v>
@@ -14130,7 +14148,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14153,17 +14171,17 @@
         <v>42</v>
       </c>
       <c r="J113" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="L113" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="K113" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="L113" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>42</v>
@@ -14188,13 +14206,13 @@
         <v>42</v>
       </c>
       <c r="W113" t="s" s="2">
-        <v>42</v>
+        <v>139</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>42</v>
+        <v>463</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>42</v>
+        <v>464</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>42</v>
@@ -14212,7 +14230,7 @@
         <v>42</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>40</v>
@@ -14246,7 +14264,7 @@
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F114" t="s" s="2">
         <v>49</v>
@@ -14261,17 +14279,17 @@
         <v>42</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>251</v>
+        <v>466</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>42</v>
@@ -14323,7 +14341,7 @@
         <v>465</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>49</v>
@@ -14346,7 +14364,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -14354,7 +14372,7 @@
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F115" t="s" s="2">
         <v>49</v>
@@ -14369,17 +14387,15 @@
         <v>42</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>107</v>
+        <v>256</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="M115" t="s" s="2">
         <v>472</v>
       </c>
+      <c r="M115" s="2"/>
       <c r="N115" t="s" s="2">
         <v>473</v>
       </c>
@@ -14430,10 +14446,10 @@
         <v>42</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>49</v>
@@ -14479,7 +14495,7 @@
         <v>42</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="K116" t="s" s="2">
         <v>475</v>
@@ -14516,13 +14532,13 @@
         <v>42</v>
       </c>
       <c r="W116" t="s" s="2">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>479</v>
+        <v>42</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>480</v>
+        <v>42</v>
       </c>
       <c r="Z116" t="s" s="2">
         <v>42</v>
@@ -14566,7 +14582,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -14589,19 +14605,19 @@
         <v>42</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="K117" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="M117" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="L117" t="s" s="2">
+      <c r="N117" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N117" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>42</v>
@@ -14626,13 +14642,13 @@
         <v>42</v>
       </c>
       <c r="W117" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="Z117" t="s" s="2">
         <v>42</v>
@@ -14650,7 +14666,7 @@
         <v>42</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>40</v>
@@ -14676,7 +14692,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -14699,19 +14715,19 @@
         <v>42</v>
       </c>
       <c r="J118" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K118" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="M118" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="K118" t="s" s="2">
+      <c r="N118" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="L118" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>493</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>42</v>
@@ -14736,13 +14752,13 @@
         <v>42</v>
       </c>
       <c r="W118" t="s" s="2">
-        <v>42</v>
+        <v>139</v>
       </c>
       <c r="X118" t="s" s="2">
-        <v>42</v>
+        <v>491</v>
       </c>
       <c r="Y118" t="s" s="2">
-        <v>42</v>
+        <v>492</v>
       </c>
       <c r="Z118" t="s" s="2">
         <v>42</v>
@@ -14760,7 +14776,7 @@
         <v>42</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>40</v>
@@ -14786,7 +14802,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -14797,7 +14813,7 @@
         <v>40</v>
       </c>
       <c r="F119" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>42</v>
@@ -14809,7 +14825,7 @@
         <v>42</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>203</v>
+        <v>494</v>
       </c>
       <c r="K119" t="s" s="2">
         <v>495</v>
@@ -14817,9 +14833,11 @@
       <c r="L119" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="M119" s="2"/>
+      <c r="M119" t="s" s="2">
+        <v>497</v>
+      </c>
       <c r="N119" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>42</v>
@@ -14868,13 +14886,13 @@
         <v>42</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>42</v>
@@ -14894,7 +14912,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -14905,7 +14923,7 @@
         <v>40</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>42</v>
@@ -14917,16 +14935,18 @@
         <v>42</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>51</v>
+        <v>208</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>208</v>
+        <v>500</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>209</v>
+        <v>501</v>
       </c>
       <c r="M120" s="2"/>
-      <c r="N120" s="2"/>
+      <c r="N120" t="s" s="2">
+        <v>502</v>
+      </c>
       <c r="O120" t="s" s="2">
         <v>42</v>
       </c>
@@ -14974,19 +14994,19 @@
         <v>42</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>210</v>
+        <v>499</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>42</v>
@@ -14995,23 +15015,23 @@
         <v>42</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>211</v>
+        <v>42</v>
       </c>
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F121" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>42</v>
@@ -15023,17 +15043,15 @@
         <v>42</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>96</v>
+        <v>213</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="M121" s="2"/>
       <c r="N121" s="2"/>
       <c r="O121" t="s" s="2">
         <v>42</v>
@@ -15082,19 +15100,19 @@
         <v>42</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>42</v>
@@ -15103,16 +15121,16 @@
         <v>42</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
-        <v>216</v>
+        <v>94</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -15125,16 +15143,16 @@
         <v>42</v>
       </c>
       <c r="H122" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I122" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J122" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>217</v>
+        <v>96</v>
       </c>
       <c r="L122" t="s" s="2">
         <v>218</v>
@@ -15142,9 +15160,7 @@
       <c r="M122" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="N122" t="s" s="2">
-        <v>104</v>
-      </c>
+      <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
         <v>42</v>
       </c>
@@ -15204,7 +15220,7 @@
         <v>42</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AJ122" t="s" s="2">
         <v>42</v>
@@ -15213,45 +15229,47 @@
         <v>42</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>92</v>
+        <v>216</v>
       </c>
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
-        <v>42</v>
+        <v>221</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F123" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G123" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H123" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I123" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>221</v>
+        <v>95</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>502</v>
+        <v>222</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="M123" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="M123" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="N123" t="s" s="2">
-        <v>504</v>
+        <v>109</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>42</v>
@@ -15300,19 +15318,19 @@
         <v>42</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>501</v>
+        <v>224</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AJ123" t="s" s="2">
         <v>42</v>
@@ -15321,12 +15339,12 @@
         <v>42</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>42</v>
+        <v>92</v>
       </c>
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -15349,17 +15367,17 @@
         <v>42</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>69</v>
+        <v>226</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M124" s="2"/>
       <c r="N124" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>42</v>
@@ -15384,13 +15402,13 @@
         <v>42</v>
       </c>
       <c r="W124" t="s" s="2">
-        <v>118</v>
+        <v>42</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>509</v>
+        <v>42</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>510</v>
+        <v>42</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>42</v>
@@ -15408,7 +15426,7 @@
         <v>42</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>40</v>
@@ -15434,7 +15452,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -15442,7 +15460,7 @@
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F125" t="s" s="2">
         <v>49</v>
@@ -15457,17 +15475,17 @@
         <v>42</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="K125" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="L125" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>513</v>
       </c>
       <c r="M125" s="2"/>
       <c r="N125" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="O125" t="s" s="2">
         <v>42</v>
@@ -15492,13 +15510,13 @@
         <v>42</v>
       </c>
       <c r="W125" t="s" s="2">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>42</v>
+        <v>514</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>42</v>
+        <v>515</v>
       </c>
       <c r="Z125" t="s" s="2">
         <v>42</v>
@@ -15516,10 +15534,10 @@
         <v>42</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>49</v>
@@ -15542,7 +15560,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -15550,7 +15568,7 @@
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F126" t="s" s="2">
         <v>49</v>
@@ -15565,17 +15583,15 @@
         <v>42</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="M126" t="s" s="2">
         <v>518</v>
       </c>
+      <c r="M126" s="2"/>
       <c r="N126" t="s" s="2">
         <v>519</v>
       </c>
@@ -15602,13 +15618,13 @@
         <v>42</v>
       </c>
       <c r="W126" t="s" s="2">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="X126" t="s" s="2">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="Y126" t="s" s="2">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="Z126" t="s" s="2">
         <v>42</v>
@@ -15626,10 +15642,10 @@
         <v>42</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>49</v>
@@ -15663,7 +15679,7 @@
         <v>40</v>
       </c>
       <c r="F127" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G127" t="s" s="2">
         <v>42</v>
@@ -15675,19 +15691,19 @@
         <v>42</v>
       </c>
       <c r="J127" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K127" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="K127" t="s" s="2">
+      <c r="L127" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="L127" t="s" s="2">
+      <c r="M127" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="M127" t="s" s="2">
+      <c r="N127" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>525</v>
       </c>
       <c r="O127" t="s" s="2">
         <v>42</v>
@@ -15712,13 +15728,13 @@
         <v>42</v>
       </c>
       <c r="W127" t="s" s="2">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="X127" t="s" s="2">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="Z127" t="s" s="2">
         <v>42</v>
@@ -15742,7 +15758,7 @@
         <v>40</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>42</v>
@@ -15762,7 +15778,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -15785,7 +15801,7 @@
         <v>42</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>203</v>
+        <v>526</v>
       </c>
       <c r="K128" t="s" s="2">
         <v>527</v>
@@ -15846,7 +15862,7 @@
         <v>42</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>40</v>
@@ -15867,12 +15883,12 @@
         <v>42</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>531</v>
+        <v>42</v>
       </c>
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -15883,7 +15899,7 @@
         <v>40</v>
       </c>
       <c r="F129" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G129" t="s" s="2">
         <v>42</v>
@@ -15895,16 +15911,20 @@
         <v>42</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>51</v>
+        <v>208</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>208</v>
+        <v>532</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M129" s="2"/>
-      <c r="N129" s="2"/>
+        <v>533</v>
+      </c>
+      <c r="M129" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="N129" t="s" s="2">
+        <v>535</v>
+      </c>
       <c r="O129" t="s" s="2">
         <v>42</v>
       </c>
@@ -15952,19 +15972,19 @@
         <v>42</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>210</v>
+        <v>531</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="AJ129" t="s" s="2">
         <v>42</v>
@@ -15973,23 +15993,23 @@
         <v>42</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>211</v>
+        <v>536</v>
       </c>
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F130" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G130" t="s" s="2">
         <v>42</v>
@@ -16001,17 +16021,15 @@
         <v>42</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>96</v>
+        <v>213</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M130" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="M130" s="2"/>
       <c r="N130" s="2"/>
       <c r="O130" t="s" s="2">
         <v>42</v>
@@ -16060,19 +16078,19 @@
         <v>42</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>42</v>
@@ -16081,16 +16099,16 @@
         <v>42</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
-        <v>216</v>
+        <v>94</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
@@ -16103,16 +16121,16 @@
         <v>42</v>
       </c>
       <c r="H131" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I131" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J131" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>217</v>
+        <v>96</v>
       </c>
       <c r="L131" t="s" s="2">
         <v>218</v>
@@ -16120,9 +16138,7 @@
       <c r="M131" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="N131" t="s" s="2">
-        <v>104</v>
-      </c>
+      <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
         <v>42</v>
       </c>
@@ -16182,7 +16198,7 @@
         <v>42</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AJ131" t="s" s="2">
         <v>42</v>
@@ -16191,45 +16207,47 @@
         <v>42</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>92</v>
+        <v>216</v>
       </c>
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
-        <v>42</v>
+        <v>221</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F132" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H132" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I132" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>221</v>
+        <v>95</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>536</v>
+        <v>222</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="M132" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="M132" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="N132" t="s" s="2">
-        <v>538</v>
+        <v>109</v>
       </c>
       <c r="O132" t="s" s="2">
         <v>42</v>
@@ -16278,19 +16296,19 @@
         <v>42</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>535</v>
+        <v>224</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AJ132" t="s" s="2">
         <v>42</v>
@@ -16299,12 +16317,12 @@
         <v>42</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>42</v>
+        <v>92</v>
       </c>
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -16327,7 +16345,7 @@
         <v>42</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>540</v>
+        <v>226</v>
       </c>
       <c r="K133" t="s" s="2">
         <v>541</v>
@@ -16335,11 +16353,9 @@
       <c r="L133" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="M133" t="s" s="2">
+      <c r="M133" s="2"/>
+      <c r="N133" t="s" s="2">
         <v>543</v>
-      </c>
-      <c r="N133" t="s" s="2">
-        <v>544</v>
       </c>
       <c r="O133" t="s" s="2">
         <v>42</v>
@@ -16388,7 +16404,7 @@
         <v>42</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>49</v>
@@ -16414,7 +16430,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -16437,15 +16453,17 @@
         <v>42</v>
       </c>
       <c r="J134" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="K134" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="K134" t="s" s="2">
+      <c r="L134" t="s" s="2">
         <v>547</v>
       </c>
-      <c r="L134" t="s" s="2">
+      <c r="M134" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="M134" s="2"/>
       <c r="N134" t="s" s="2">
         <v>549</v>
       </c>
@@ -16496,7 +16514,7 @@
         <v>42</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>49</v>
@@ -16530,7 +16548,7 @@
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F135" t="s" s="2">
         <v>49</v>
@@ -16545,17 +16563,17 @@
         <v>42</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>51</v>
+        <v>551</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M135" s="2"/>
       <c r="N135" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="O135" t="s" s="2">
         <v>42</v>
@@ -16607,7 +16625,7 @@
         <v>550</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>49</v>
@@ -16630,7 +16648,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -16653,7 +16671,7 @@
         <v>42</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>555</v>
+        <v>51</v>
       </c>
       <c r="K136" t="s" s="2">
         <v>556</v>
@@ -16661,11 +16679,9 @@
       <c r="L136" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="M136" t="s" s="2">
+      <c r="M136" s="2"/>
+      <c r="N136" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>559</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>42</v>
@@ -16714,7 +16730,7 @@
         <v>42</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>40</v>
@@ -16740,7 +16756,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -16751,7 +16767,7 @@
         <v>40</v>
       </c>
       <c r="F137" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G137" t="s" s="2">
         <v>42</v>
@@ -16763,7 +16779,7 @@
         <v>42</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>203</v>
+        <v>560</v>
       </c>
       <c r="K137" t="s" s="2">
         <v>561</v>
@@ -16824,13 +16840,13 @@
         <v>42</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>42</v>
@@ -16861,7 +16877,7 @@
         <v>40</v>
       </c>
       <c r="F138" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G138" t="s" s="2">
         <v>42</v>
@@ -16873,16 +16889,20 @@
         <v>42</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>51</v>
+        <v>208</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>208</v>
+        <v>566</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M138" s="2"/>
-      <c r="N138" s="2"/>
+        <v>567</v>
+      </c>
+      <c r="M138" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="N138" t="s" s="2">
+        <v>569</v>
+      </c>
       <c r="O138" t="s" s="2">
         <v>42</v>
       </c>
@@ -16930,19 +16950,19 @@
         <v>42</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>210</v>
+        <v>565</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="AJ138" t="s" s="2">
         <v>42</v>
@@ -16951,23 +16971,23 @@
         <v>42</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>211</v>
+        <v>42</v>
       </c>
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F139" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G139" t="s" s="2">
         <v>42</v>
@@ -16979,17 +16999,15 @@
         <v>42</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>96</v>
+        <v>213</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="M139" s="2"/>
       <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
         <v>42</v>
@@ -17038,19 +17056,19 @@
         <v>42</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="AJ139" t="s" s="2">
         <v>42</v>
@@ -17059,16 +17077,16 @@
         <v>42</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
-        <v>216</v>
+        <v>94</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
@@ -17081,16 +17099,16 @@
         <v>42</v>
       </c>
       <c r="H140" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I140" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J140" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>217</v>
+        <v>96</v>
       </c>
       <c r="L140" t="s" s="2">
         <v>218</v>
@@ -17098,9 +17116,7 @@
       <c r="M140" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="N140" t="s" s="2">
-        <v>104</v>
-      </c>
+      <c r="N140" s="2"/>
       <c r="O140" t="s" s="2">
         <v>42</v>
       </c>
@@ -17160,7 +17176,7 @@
         <v>42</v>
       </c>
       <c r="AI140" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AJ140" t="s" s="2">
         <v>42</v>
@@ -17169,45 +17185,47 @@
         <v>42</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>92</v>
+        <v>216</v>
       </c>
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
-        <v>42</v>
+        <v>221</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F141" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G141" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H141" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I141" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>221</v>
+        <v>95</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>299</v>
+        <v>222</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="M141" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="M141" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="N141" t="s" s="2">
-        <v>301</v>
+        <v>109</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>42</v>
@@ -17256,19 +17274,19 @@
         <v>42</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>568</v>
+        <v>224</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI141" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AJ141" t="s" s="2">
         <v>42</v>
@@ -17277,12 +17295,12 @@
         <v>42</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>42</v>
+        <v>92</v>
       </c>
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -17305,17 +17323,17 @@
         <v>42</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>42</v>
@@ -17364,7 +17382,7 @@
         <v>42</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>40</v>
@@ -17390,7 +17408,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -17413,17 +17431,17 @@
         <v>42</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="M143" s="2"/>
       <c r="N143" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>42</v>
@@ -17472,7 +17490,7 @@
         <v>42</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>40</v>
@@ -17498,7 +17516,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -17506,7 +17524,7 @@
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F144" t="s" s="2">
         <v>49</v>
@@ -17521,17 +17539,17 @@
         <v>42</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>124</v>
+        <v>226</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>575</v>
+        <v>312</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" t="s" s="2">
-        <v>577</v>
+        <v>314</v>
       </c>
       <c r="O144" t="s" s="2">
         <v>42</v>
@@ -17556,13 +17574,13 @@
         <v>42</v>
       </c>
       <c r="W144" t="s" s="2">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="X144" t="s" s="2">
-        <v>578</v>
+        <v>42</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>579</v>
+        <v>42</v>
       </c>
       <c r="Z144" t="s" s="2">
         <v>42</v>
@@ -17580,10 +17598,10 @@
         <v>42</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>49</v>
@@ -17604,8 +17622,116 @@
         <v>42</v>
       </c>
     </row>
+    <row r="145" hidden="true">
+      <c r="A145" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="B145" s="2"/>
+      <c r="C145" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D145" s="2"/>
+      <c r="E145" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="F145" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G145" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H145" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I145" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J145" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K145" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="L145" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="M145" s="2"/>
+      <c r="N145" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="O145" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P145" s="2"/>
+      <c r="Q145" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R145" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S145" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T145" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U145" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V145" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W145" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="X145" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="Y145" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="Z145" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA145" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB145" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC145" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD145" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE145" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AF145" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG145" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH145" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI145" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ145" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK145" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL145" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AL144">
+  <autoFilter ref="A1:AL145">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -17615,7 +17741,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI143">
+  <conditionalFormatting sqref="A2:AI144">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-ClaimResponse.xlsx
+++ b/output/StructureDefinition-ClaimResponse.xlsx
@@ -809,7 +809,7 @@
     <t>The adjudication reason codes.</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/Swasth-Digital-Health-Foundation/standards/main/FHIR%20Definitions/valueset-denial-codes.json</t>
+    <t>https://swasth-digital-health-foundation.github.io/standards/output/ValueSet-claim-denial-codes.html</t>
   </si>
   <si>
     <t>ClaimResponse.item.adjudication.amount</t>
@@ -1992,7 +1992,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="121.30859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="122.1171875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="93.36328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
